--- a/timeseries_test1.xlsx
+++ b/timeseries_test1.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Tim Rodgers\Documents\GitHub\BioretentionBlues\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E0FB8D9-D59B-4B64-9C3F-E8C052C0ABAE}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42C249D6-4D10-4EAB-9AAF-BC5E262A0B0D}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5580" xr2:uid="{3FBB2BFD-78C0-48D5-BF04-846B02A3EE22}"/>
   </bookViews>
@@ -479,8 +479,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8298392A-9FC0-4855-BC14-9D019F854B13}">
   <dimension ref="A1:AD102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="O2" sqref="O2:AD102"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:C102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -592,10 +592,10 @@
         <v>0</v>
       </c>
       <c r="B2" s="1">
-        <v>2.1705682641020534</v>
+        <v>0.93526928666981868</v>
       </c>
       <c r="C2" s="1">
-        <v>1.2798942033174574</v>
+        <v>0.55490616890492861</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -684,10 +684,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="1">
-        <v>2.5364044462962894</v>
+        <v>0.2</v>
       </c>
       <c r="C3" s="1">
-        <v>1.0905432882402548</v>
+        <v>0.11694369985758696</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -776,10 +776,10 @@
         <v>2</v>
       </c>
       <c r="B4" s="1">
-        <v>2.7530030042176232</v>
+        <v>0.29136732905948265</v>
       </c>
       <c r="C4" s="1">
-        <v>1.1663928508376749</v>
+        <v>0.17704005883180335</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -868,10 +868,10 @@
         <v>3</v>
       </c>
       <c r="B5" s="1">
-        <v>2.9315353994510867</v>
+        <v>1.2566239098079632</v>
       </c>
       <c r="C5" s="1">
-        <v>1.5933871189851794</v>
+        <v>0.7577602289599874</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -960,10 +960,10 @@
         <v>4</v>
       </c>
       <c r="B6" s="1">
-        <v>2.1790257799622696</v>
+        <v>1.2526969866335844</v>
       </c>
       <c r="C6" s="1">
-        <v>0.89857730825604976</v>
+        <v>0.67217391769245949</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -1052,10 +1052,10 @@
         <v>5</v>
       </c>
       <c r="B7" s="1">
-        <v>2.8828503089386954</v>
+        <v>1.4197790804767074</v>
       </c>
       <c r="C7" s="1">
-        <v>0.96989805945625973</v>
+        <v>0.78893855735653051</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -1144,10 +1144,10 @@
         <v>6</v>
       </c>
       <c r="B8" s="1">
-        <v>2.6814958338345174</v>
+        <v>0.48445136249412601</v>
       </c>
       <c r="C8" s="1">
-        <v>1.2037373467351722</v>
+        <v>0.28764322199508874</v>
       </c>
       <c r="D8">
         <v>0</v>
@@ -1236,10 +1236,10 @@
         <v>7</v>
       </c>
       <c r="B9" s="1">
-        <v>2.784573111741877</v>
+        <v>0.69474314714200236</v>
       </c>
       <c r="C9" s="1">
-        <v>1.0802838071555196</v>
+        <v>0.42451427309068041</v>
       </c>
       <c r="D9">
         <v>0</v>
@@ -1328,10 +1328,10 @@
         <v>8</v>
       </c>
       <c r="B10" s="1">
-        <v>2.002754626119605</v>
+        <v>0.2</v>
       </c>
       <c r="C10" s="1">
-        <v>0.70599954723308378</v>
+        <v>0.12880401281961873</v>
       </c>
       <c r="D10">
         <v>0</v>
@@ -1420,10 +1420,10 @@
         <v>9</v>
       </c>
       <c r="B11" s="1">
-        <v>2.3109435059751648</v>
+        <v>0.5374584940806284</v>
       </c>
       <c r="C11" s="1">
-        <v>1.1870861079123529</v>
+        <v>0.30282745040177883</v>
       </c>
       <c r="D11">
         <v>0</v>
@@ -1512,10 +1512,10 @@
         <v>10</v>
       </c>
       <c r="B12" s="1">
-        <v>2.720688146745498</v>
+        <v>1.497722439278292</v>
       </c>
       <c r="C12" s="1">
-        <v>1.1198037838587995</v>
+        <v>0.87425529319227357</v>
       </c>
       <c r="D12">
         <v>0</v>
@@ -1604,10 +1604,10 @@
         <v>11</v>
       </c>
       <c r="B13" s="1">
-        <v>2.8450830584772318</v>
+        <v>0.53620074661309236</v>
       </c>
       <c r="C13" s="1">
-        <v>1.0497187643360251</v>
+        <v>0.31176139973319328</v>
       </c>
       <c r="D13">
         <v>0</v>
@@ -1696,10 +1696,10 @@
         <v>12</v>
       </c>
       <c r="B14" s="1">
-        <v>2.8565999635032018</v>
+        <v>0.74644438734724783</v>
       </c>
       <c r="C14" s="1">
-        <v>1.1624613698355764</v>
+        <v>0.43384227929378066</v>
       </c>
       <c r="D14">
         <v>0</v>
@@ -1788,10 +1788,10 @@
         <v>13</v>
       </c>
       <c r="B15" s="1">
-        <v>2.1999318032829036</v>
+        <v>0.2</v>
       </c>
       <c r="C15" s="1">
-        <v>0.83063284363150436</v>
+        <v>0.11098919010968242</v>
       </c>
       <c r="D15">
         <v>0</v>
@@ -1880,10 +1880,10 @@
         <v>14</v>
       </c>
       <c r="B16" s="1">
-        <v>2.9981801547489599</v>
+        <v>0.52111345612649507</v>
       </c>
       <c r="C16" s="1">
-        <v>1.7090657131758078</v>
+        <v>0.26914531075957016</v>
       </c>
       <c r="D16">
         <v>0</v>
@@ -1972,10 +1972,10 @@
         <v>15</v>
       </c>
       <c r="B17" s="1">
-        <v>2.6893203645763459</v>
+        <v>1.0750738846217176</v>
       </c>
       <c r="C17" s="1">
-        <v>1.2739144549754071</v>
+        <v>0.59516543595795524</v>
       </c>
       <c r="D17">
         <v>0</v>
@@ -2064,10 +2064,10 @@
         <v>16</v>
       </c>
       <c r="B18" s="1">
-        <v>2.7960707784435432</v>
+        <v>0.2</v>
       </c>
       <c r="C18" s="1">
-        <v>1.2282301525349943</v>
+        <v>0.10990577733879951</v>
       </c>
       <c r="D18">
         <v>0</v>
@@ -2156,10 +2156,10 @@
         <v>17</v>
       </c>
       <c r="B19" s="1">
-        <v>2.9763109386804381</v>
+        <v>0.66959850984077995</v>
       </c>
       <c r="C19" s="1">
-        <v>1.3641946597932018</v>
+        <v>0.4147644873314853</v>
       </c>
       <c r="D19">
         <v>0</v>
@@ -2248,10 +2248,10 @@
         <v>18</v>
       </c>
       <c r="B20" s="1">
-        <v>2.6456195731265861</v>
+        <v>1.0396600899455197</v>
       </c>
       <c r="C20" s="1">
-        <v>1.0771593669220441</v>
+        <v>0.60017902362862974</v>
       </c>
       <c r="D20">
         <v>0</v>
@@ -2340,10 +2340,10 @@
         <v>19</v>
       </c>
       <c r="B21" s="1">
-        <v>2.0800439009062321</v>
+        <v>1.2192985321640784</v>
       </c>
       <c r="C21" s="1">
-        <v>0.75074256384732796</v>
+        <v>0.75050331135111337</v>
       </c>
       <c r="D21">
         <v>0</v>
@@ -2432,10 +2432,10 @@
         <v>20</v>
       </c>
       <c r="B22" s="1">
-        <v>2.5342875763734831</v>
+        <v>1.2437219143855336</v>
       </c>
       <c r="C22" s="1">
-        <v>0.89471781715821086</v>
+        <v>0.73604113497972323</v>
       </c>
       <c r="D22">
         <v>0</v>
@@ -2524,10 +2524,10 @@
         <v>21</v>
       </c>
       <c r="B23" s="1">
-        <v>2.2577999760041818</v>
+        <v>1.0212498813450814</v>
       </c>
       <c r="C23" s="1">
-        <v>1.0208328347811959</v>
+        <v>0.59260002759031249</v>
       </c>
       <c r="D23">
         <v>0</v>
@@ -2616,10 +2616,10 @@
         <v>22</v>
       </c>
       <c r="B24" s="1">
-        <v>2.836599207314273</v>
+        <v>0.46391669884836639</v>
       </c>
       <c r="C24" s="1">
-        <v>1.4371659520596467</v>
+        <v>0.28524798756882397</v>
       </c>
       <c r="D24">
         <v>0</v>
@@ -2708,10 +2708,10 @@
         <v>23</v>
       </c>
       <c r="B25" s="1">
-        <v>2.1486222631255893</v>
+        <v>0.2</v>
       </c>
       <c r="C25" s="1">
-        <v>1.1945928727873725</v>
+        <v>0.12835200408781899</v>
       </c>
       <c r="D25">
         <v>0</v>
@@ -2800,10 +2800,10 @@
         <v>24</v>
       </c>
       <c r="B26" s="1">
-        <v>2.3125009444287348</v>
+        <v>1.8361630825142141</v>
       </c>
       <c r="C26" s="1">
-        <v>1.0302004172571186</v>
+        <v>0.92844167048147552</v>
       </c>
       <c r="D26">
         <v>0</v>
@@ -2892,10 +2892,10 @@
         <v>25</v>
       </c>
       <c r="B27" s="1">
-        <v>2.0707173731633155</v>
+        <v>1.8723507052386617</v>
       </c>
       <c r="C27" s="1">
-        <v>0.83958552840214962</v>
+        <v>1.1480848122674419</v>
       </c>
       <c r="D27">
         <v>0</v>
@@ -2984,10 +2984,10 @@
         <v>26</v>
       </c>
       <c r="B28" s="1">
-        <v>2.5082465047200744</v>
+        <v>0.89220029992112448</v>
       </c>
       <c r="C28" s="1">
-        <v>1.1118984687295466</v>
+        <v>0.53646238337554331</v>
       </c>
       <c r="D28">
         <v>0</v>
@@ -3076,10 +3076,10 @@
         <v>27</v>
       </c>
       <c r="B29" s="1">
-        <v>2.1777468128430058</v>
+        <v>1.056248606116561</v>
       </c>
       <c r="C29" s="1">
-        <v>1.0353226409829319</v>
+        <v>0.5904138921406471</v>
       </c>
       <c r="D29">
         <v>0</v>
@@ -3168,10 +3168,10 @@
         <v>28</v>
       </c>
       <c r="B30" s="1">
-        <v>2.2360746664475135</v>
+        <v>0.53989979246153696</v>
       </c>
       <c r="C30" s="1">
-        <v>1.1134195847961739</v>
+        <v>0.34189279481033141</v>
       </c>
       <c r="D30">
         <v>0</v>
@@ -3260,10 +3260,10 @@
         <v>29</v>
       </c>
       <c r="B31" s="1">
-        <v>2.5088364619154762</v>
+        <v>2.3084068548501282</v>
       </c>
       <c r="C31" s="1">
-        <v>1.1857658909773359</v>
+        <v>1.3252726424406913</v>
       </c>
       <c r="D31">
         <v>0</v>
@@ -3352,10 +3352,10 @@
         <v>30</v>
       </c>
       <c r="B32" s="1">
-        <v>2.3415010622761563</v>
+        <v>0.2</v>
       </c>
       <c r="C32" s="1">
-        <v>1.3165457061445955</v>
+        <v>0.11665884566233407</v>
       </c>
       <c r="D32">
         <v>0</v>
@@ -3444,10 +3444,10 @@
         <v>31</v>
       </c>
       <c r="B33" s="1">
-        <v>2.4997834091248707</v>
+        <v>0.57602617831501868</v>
       </c>
       <c r="C33" s="1">
-        <v>1.2067543250736057</v>
+        <v>0.32150063928284706</v>
       </c>
       <c r="D33">
         <v>0</v>
@@ -3536,10 +3536,10 @@
         <v>32</v>
       </c>
       <c r="B34" s="1">
-        <v>2.5039955267481853</v>
+        <v>1.0431180568694862</v>
       </c>
       <c r="C34" s="1">
-        <v>0.97383886705632094</v>
+        <v>0.62419095396468072</v>
       </c>
       <c r="D34">
         <v>0</v>
@@ -3628,10 +3628,10 @@
         <v>33</v>
       </c>
       <c r="B35" s="1">
-        <v>2.1193013392214786</v>
+        <v>1.1476603605721662</v>
       </c>
       <c r="C35" s="1">
-        <v>0.886724831554494</v>
+        <v>0.68905315864855343</v>
       </c>
       <c r="D35">
         <v>0</v>
@@ -3720,10 +3720,10 @@
         <v>34</v>
       </c>
       <c r="B36" s="1">
-        <v>2.8394696575831944</v>
+        <v>0.73954783224361331</v>
       </c>
       <c r="C36" s="1">
-        <v>1.6482666619996043</v>
+        <v>0.42283580311442642</v>
       </c>
       <c r="D36">
         <v>0</v>
@@ -3812,10 +3812,10 @@
         <v>35</v>
       </c>
       <c r="B37" s="1">
-        <v>2.317576316137302</v>
+        <v>0.2</v>
       </c>
       <c r="C37" s="1">
-        <v>1.344386159010438</v>
+        <v>0.12384621675758578</v>
       </c>
       <c r="D37">
         <v>0</v>
@@ -3904,10 +3904,10 @@
         <v>36</v>
       </c>
       <c r="B38" s="1">
-        <v>2.9486294830096038</v>
+        <v>1.405457866775448</v>
       </c>
       <c r="C38" s="1">
-        <v>1.27345248189292</v>
+        <v>0.87478952733487225</v>
       </c>
       <c r="D38">
         <v>0</v>
@@ -3996,10 +3996,10 @@
         <v>37</v>
       </c>
       <c r="B39" s="1">
-        <v>2.7008711574860476</v>
+        <v>0.2</v>
       </c>
       <c r="C39" s="1">
-        <v>1.0239438209749678</v>
+        <v>0.12603946629032914</v>
       </c>
       <c r="D39">
         <v>0</v>
@@ -4088,10 +4088,10 @@
         <v>38</v>
       </c>
       <c r="B40" s="1">
-        <v>2.0713575497486834</v>
+        <v>0.2</v>
       </c>
       <c r="C40" s="1">
-        <v>0.95468765308858283</v>
+        <v>0.11654444107602385</v>
       </c>
       <c r="D40">
         <v>0</v>
@@ -4180,10 +4180,10 @@
         <v>39</v>
       </c>
       <c r="B41" s="1">
-        <v>2.3153790816457747</v>
+        <v>1.1495756729290256</v>
       </c>
       <c r="C41" s="1">
-        <v>1.0233979554324488</v>
+        <v>0.66589529594306018</v>
       </c>
       <c r="D41">
         <v>0</v>
@@ -4272,10 +4272,10 @@
         <v>40</v>
       </c>
       <c r="B42" s="1">
-        <v>2.4335860918096777</v>
+        <v>0.59077261295737227</v>
       </c>
       <c r="C42" s="1">
-        <v>1.4424430975630924</v>
+        <v>0.31827293860234163</v>
       </c>
       <c r="D42">
         <v>0</v>
@@ -4364,10 +4364,10 @@
         <v>41</v>
       </c>
       <c r="B43" s="1">
-        <v>2.0855200655668882</v>
+        <v>1.046173140766504</v>
       </c>
       <c r="C43" s="1">
-        <v>0.77284771599113367</v>
+        <v>0.61635528419436247</v>
       </c>
       <c r="D43">
         <v>0</v>
@@ -4456,10 +4456,10 @@
         <v>42</v>
       </c>
       <c r="B44" s="1">
-        <v>2.2731463609571447</v>
+        <v>0.4244253055129652</v>
       </c>
       <c r="C44" s="1">
-        <v>0.8947254670654452</v>
+        <v>0.24799669814786252</v>
       </c>
       <c r="D44">
         <v>0</v>
@@ -4548,10 +4548,10 @@
         <v>43</v>
       </c>
       <c r="B45" s="1">
-        <v>2.827542800465042</v>
+        <v>0.75052219883742222</v>
       </c>
       <c r="C45" s="1">
-        <v>1.3895413576774072</v>
+        <v>0.48332871015940637</v>
       </c>
       <c r="D45">
         <v>0</v>
@@ -4640,10 +4640,10 @@
         <v>44</v>
       </c>
       <c r="B46" s="1">
-        <v>2.3162558186208351</v>
+        <v>1.1136514218171645</v>
       </c>
       <c r="C46" s="1">
-        <v>1.0690345232738772</v>
+        <v>0.66970680687119222</v>
       </c>
       <c r="D46">
         <v>0</v>
@@ -4732,10 +4732,10 @@
         <v>45</v>
       </c>
       <c r="B47" s="1">
-        <v>2.809231443324864</v>
+        <v>1.3413830822202886</v>
       </c>
       <c r="C47" s="1">
-        <v>1.3508914853076239</v>
+        <v>0.75283584836413919</v>
       </c>
       <c r="D47">
         <v>0</v>
@@ -4824,10 +4824,10 @@
         <v>46</v>
       </c>
       <c r="B48" s="1">
-        <v>2.8979847735479503</v>
+        <v>0.58300101045140429</v>
       </c>
       <c r="C48" s="1">
-        <v>0.99249469670702184</v>
+        <v>0.35110402163122967</v>
       </c>
       <c r="D48">
         <v>0</v>
@@ -4916,10 +4916,10 @@
         <v>47</v>
       </c>
       <c r="B49" s="1">
-        <v>2.6631253447812462</v>
+        <v>0.57023105006460884</v>
       </c>
       <c r="C49" s="1">
-        <v>1.1139968154145277</v>
+        <v>0.29268415043258394</v>
       </c>
       <c r="D49">
         <v>0</v>
@@ -5008,10 +5008,10 @@
         <v>48</v>
       </c>
       <c r="B50" s="1">
-        <v>2.9507747605092556</v>
+        <v>1.5606636162046459</v>
       </c>
       <c r="C50" s="1">
-        <v>1.2369685406195721</v>
+        <v>0.96899935012517679</v>
       </c>
       <c r="D50">
         <v>0</v>
@@ -5100,10 +5100,10 @@
         <v>49</v>
       </c>
       <c r="B51" s="1">
-        <v>2.4195589503313686</v>
+        <v>0.2</v>
       </c>
       <c r="C51" s="1">
-        <v>1.0565969326525066</v>
+        <v>0.11181446953236522</v>
       </c>
       <c r="D51">
         <v>0</v>
@@ -5192,10 +5192,10 @@
         <v>50</v>
       </c>
       <c r="B52" s="1">
-        <v>2.5632501369093492</v>
+        <v>0.2</v>
       </c>
       <c r="C52" s="1">
-        <v>1.3353014781815848</v>
+        <v>0.10852112794632683</v>
       </c>
       <c r="D52">
         <v>0</v>
@@ -5284,10 +5284,10 @@
         <v>51</v>
       </c>
       <c r="B53" s="1">
-        <v>2.4561499970949354</v>
+        <v>1.8789616347445299</v>
       </c>
       <c r="C53" s="1">
-        <v>1.0047651732296625</v>
+        <v>1.0852630765534215</v>
       </c>
       <c r="D53">
         <v>0</v>
@@ -5376,10 +5376,10 @@
         <v>52</v>
       </c>
       <c r="B54" s="1">
-        <v>2.1912137669604399</v>
+        <v>0.68355269811935815</v>
       </c>
       <c r="C54" s="1">
-        <v>0.97739319410857639</v>
+        <v>0.40991989020145625</v>
       </c>
       <c r="D54">
         <v>0</v>
@@ -5468,10 +5468,10 @@
         <v>53</v>
       </c>
       <c r="B55" s="1">
-        <v>2.4157686080845253</v>
+        <v>1.2629129031843562</v>
       </c>
       <c r="C55" s="1">
-        <v>1.3612906841209429</v>
+        <v>0.74665121468939688</v>
       </c>
       <c r="D55">
         <v>0</v>
@@ -5560,10 +5560,10 @@
         <v>54</v>
       </c>
       <c r="B56" s="1">
-        <v>2.0977948650224505</v>
+        <v>0.48131206081029931</v>
       </c>
       <c r="C56" s="1">
-        <v>0.9153649932351785</v>
+        <v>0.28281158371040621</v>
       </c>
       <c r="D56">
         <v>0</v>
@@ -5652,10 +5652,10 @@
         <v>55</v>
       </c>
       <c r="B57" s="1">
-        <v>2.6355538527143474</v>
+        <v>0.62095123544133424</v>
       </c>
       <c r="C57" s="1">
-        <v>0.86600726801871153</v>
+        <v>0.36442292258133696</v>
       </c>
       <c r="D57">
         <v>0</v>
@@ -5744,10 +5744,10 @@
         <v>56</v>
       </c>
       <c r="B58" s="1">
-        <v>2.1518169850984759</v>
+        <v>1.3083450697615513</v>
       </c>
       <c r="C58" s="1">
-        <v>0.64568615406589691</v>
+        <v>0.77596992971611123</v>
       </c>
       <c r="D58">
         <v>0</v>
@@ -5836,10 +5836,10 @@
         <v>57</v>
       </c>
       <c r="B59" s="1">
-        <v>2.4878841401398604</v>
+        <v>0.8872985994092113</v>
       </c>
       <c r="C59" s="1">
-        <v>1.4052893150114685</v>
+        <v>0.49636701937308153</v>
       </c>
       <c r="D59">
         <v>0</v>
@@ -5928,10 +5928,10 @@
         <v>58</v>
       </c>
       <c r="B60" s="1">
-        <v>2.6159952606399832</v>
+        <v>0.30274906164935739</v>
       </c>
       <c r="C60" s="1">
-        <v>0.80735956336786996</v>
+        <v>0.18194307848433949</v>
       </c>
       <c r="D60">
         <v>0</v>
@@ -6020,10 +6020,10 @@
         <v>59</v>
       </c>
       <c r="B61" s="1">
-        <v>2.9193271652137702</v>
+        <v>0.40097641663262734</v>
       </c>
       <c r="C61" s="1">
-        <v>1.4179413272669226</v>
+        <v>0.21875004892540895</v>
       </c>
       <c r="D61">
         <v>0</v>
@@ -6112,10 +6112,10 @@
         <v>60</v>
       </c>
       <c r="B62" s="1">
-        <v>2.39525625161217</v>
+        <v>0.96262783077619396</v>
       </c>
       <c r="C62" s="1">
-        <v>0.92637879119384714</v>
+        <v>0.57810639646260786</v>
       </c>
       <c r="D62">
         <v>0</v>
@@ -6204,10 +6204,10 @@
         <v>61</v>
       </c>
       <c r="B63" s="1">
-        <v>2.919025697824575</v>
+        <v>1.0751967393266648</v>
       </c>
       <c r="C63" s="1">
-        <v>1.5830777733230432</v>
+        <v>0.64297912159323189</v>
       </c>
       <c r="D63">
         <v>0</v>
@@ -6296,10 +6296,10 @@
         <v>62</v>
       </c>
       <c r="B64" s="1">
-        <v>2.7906409679628554</v>
+        <v>0.2</v>
       </c>
       <c r="C64" s="1">
-        <v>1.5093046454086632</v>
+        <v>0.1076677592447039</v>
       </c>
       <c r="D64">
         <v>0</v>
@@ -6388,10 +6388,10 @@
         <v>63</v>
       </c>
       <c r="B65" s="1">
-        <v>2.7605380684413006</v>
+        <v>1.1611344644643724</v>
       </c>
       <c r="C65" s="1">
-        <v>1.0323804483903785</v>
+        <v>0.70934350692010883</v>
       </c>
       <c r="D65">
         <v>0</v>
@@ -6480,10 +6480,10 @@
         <v>64</v>
       </c>
       <c r="B66" s="1">
-        <v>2.2882114131722262</v>
+        <v>0.2</v>
       </c>
       <c r="C66" s="1">
-        <v>1.2921375053616511</v>
+        <v>0.10813459116547934</v>
       </c>
       <c r="D66">
         <v>0</v>
@@ -6572,10 +6572,10 @@
         <v>65</v>
       </c>
       <c r="B67" s="1">
-        <v>2.5837619026515561</v>
+        <v>0.2</v>
       </c>
       <c r="C67" s="1">
-        <v>0.89871901665997911</v>
+        <v>0.11307468238706496</v>
       </c>
       <c r="D67">
         <v>0</v>
@@ -6664,10 +6664,10 @@
         <v>66</v>
       </c>
       <c r="B68" s="1">
-        <v>2.7988872398091278</v>
+        <v>1.5829303434907802</v>
       </c>
       <c r="C68" s="1">
-        <v>1.2605423244404894</v>
+        <v>0.91369690341354093</v>
       </c>
       <c r="D68">
         <v>0</v>
@@ -6756,10 +6756,10 @@
         <v>67</v>
       </c>
       <c r="B69" s="1">
-        <v>2.0221275720944218</v>
+        <v>0.53018014607803243</v>
       </c>
       <c r="C69" s="1">
-        <v>0.67636520828061764</v>
+        <v>0.30723876365416547</v>
       </c>
       <c r="D69">
         <v>0</v>
@@ -6848,10 +6848,10 @@
         <v>68</v>
       </c>
       <c r="B70" s="1">
-        <v>2.2029238622749778</v>
+        <v>1.8008515927989774</v>
       </c>
       <c r="C70" s="1">
-        <v>1.1974563924553909</v>
+        <v>0.97640073381294079</v>
       </c>
       <c r="D70">
         <v>0</v>
@@ -6940,10 +6940,10 @@
         <v>69</v>
       </c>
       <c r="B71" s="1">
-        <v>2.6515947439057386</v>
+        <v>1.3954505200501806</v>
       </c>
       <c r="C71" s="1">
-        <v>1.5087439536915457</v>
+        <v>0.7797013322490739</v>
       </c>
       <c r="D71">
         <v>0</v>
@@ -7032,10 +7032,10 @@
         <v>70</v>
       </c>
       <c r="B72" s="1">
-        <v>2.4555663610524445</v>
+        <v>0.37754744450762601</v>
       </c>
       <c r="C72" s="1">
-        <v>1.2994310371084059</v>
+        <v>0.2001539361741177</v>
       </c>
       <c r="D72">
         <v>0</v>
@@ -7124,10 +7124,10 @@
         <v>71</v>
       </c>
       <c r="B73" s="1">
-        <v>2.0889971085434285</v>
+        <v>0.42112005497934829</v>
       </c>
       <c r="C73" s="1">
-        <v>1.0094308324101786</v>
+        <v>0.21964567039320509</v>
       </c>
       <c r="D73">
         <v>0</v>
@@ -7216,10 +7216,10 @@
         <v>72</v>
       </c>
       <c r="B74" s="1">
-        <v>2.9253771456763951</v>
+        <v>1.3950676652211489</v>
       </c>
       <c r="C74" s="1">
-        <v>1.287401036913367</v>
+        <v>0.86715104884827998</v>
       </c>
       <c r="D74">
         <v>0</v>
@@ -7308,10 +7308,10 @@
         <v>73</v>
       </c>
       <c r="B75" s="1">
-        <v>2.1300966307663964</v>
+        <v>0.45255157399170592</v>
       </c>
       <c r="C75" s="1">
-        <v>1.0948506544384815</v>
+        <v>0.26590816422779562</v>
       </c>
       <c r="D75">
         <v>0</v>
@@ -7400,10 +7400,10 @@
         <v>74</v>
       </c>
       <c r="B76" s="1">
-        <v>2.0513295506337386</v>
+        <v>0.24017382295074624</v>
       </c>
       <c r="C76" s="1">
-        <v>0.96246326033019503</v>
+        <v>0.13542046553910209</v>
       </c>
       <c r="D76">
         <v>0</v>
@@ -7492,10 +7492,10 @@
         <v>75</v>
       </c>
       <c r="B77" s="1">
-        <v>2.0384723973056453</v>
+        <v>1.0332826780367583</v>
       </c>
       <c r="C77" s="1">
-        <v>0.95250928245547239</v>
+        <v>0.62648100747386026</v>
       </c>
       <c r="D77">
         <v>0</v>
@@ -7584,10 +7584,10 @@
         <v>76</v>
       </c>
       <c r="B78" s="1">
-        <v>2.3530983009259128</v>
+        <v>0.70695766257596182</v>
       </c>
       <c r="C78" s="1">
-        <v>1.1559373967458859</v>
+        <v>0.40956426218941583</v>
       </c>
       <c r="D78">
         <v>0</v>
@@ -7676,10 +7676,10 @@
         <v>77</v>
       </c>
       <c r="B79" s="1">
-        <v>2.5302223501424117</v>
+        <v>0.64268913060144806</v>
       </c>
       <c r="C79" s="1">
-        <v>0.8787499455844433</v>
+        <v>0.41789067002839109</v>
       </c>
       <c r="D79">
         <v>0</v>
@@ -7768,10 +7768,10 @@
         <v>78</v>
       </c>
       <c r="B80" s="1">
-        <v>2.6455749613084989</v>
+        <v>0.60866443125443137</v>
       </c>
       <c r="C80" s="1">
-        <v>1.2335262012025536</v>
+        <v>0.33355367054923091</v>
       </c>
       <c r="D80">
         <v>0</v>
@@ -7860,10 +7860,10 @@
         <v>79</v>
       </c>
       <c r="B81" s="1">
-        <v>2.4962908789954659</v>
+        <v>1.1396763748756362</v>
       </c>
       <c r="C81" s="1">
-        <v>0.87884554737084897</v>
+        <v>0.69064210488952993</v>
       </c>
       <c r="D81">
         <v>0</v>
@@ -7952,10 +7952,10 @@
         <v>80</v>
       </c>
       <c r="B82" s="1">
-        <v>2.52714292932394</v>
+        <v>0.88881613766877732</v>
       </c>
       <c r="C82" s="1">
-        <v>1.3349911866759963</v>
+        <v>0.49615756449727649</v>
       </c>
       <c r="D82">
         <v>0</v>
@@ -8044,10 +8044,10 @@
         <v>81</v>
       </c>
       <c r="B83" s="1">
-        <v>2.1558236819558574</v>
+        <v>1.3487422933103272</v>
       </c>
       <c r="C83" s="1">
-        <v>1.0960683254695234</v>
+        <v>0.72881784522983917</v>
       </c>
       <c r="D83">
         <v>0</v>
@@ -8136,10 +8136,10 @@
         <v>82</v>
       </c>
       <c r="B84" s="1">
-        <v>2.6385540245343733</v>
+        <v>1.3954005858708904</v>
       </c>
       <c r="C84" s="1">
-        <v>1.4422235132055232</v>
+        <v>0.82372054649696158</v>
       </c>
       <c r="D84">
         <v>0</v>
@@ -8228,10 +8228,10 @@
         <v>83</v>
       </c>
       <c r="B85" s="1">
-        <v>2.9313429427080901</v>
+        <v>2.180231732778191</v>
       </c>
       <c r="C85" s="1">
-        <v>1.6854516037299077</v>
+        <v>1.1440591291250011</v>
       </c>
       <c r="D85">
         <v>0</v>
@@ -8320,10 +8320,10 @@
         <v>84</v>
       </c>
       <c r="B86" s="1">
-        <v>2.2250811787303535</v>
+        <v>0.24289026721977397</v>
       </c>
       <c r="C86" s="1">
-        <v>0.77133459615405342</v>
+        <v>0.13242821676320243</v>
       </c>
       <c r="D86">
         <v>0</v>
@@ -8412,10 +8412,10 @@
         <v>85</v>
       </c>
       <c r="B87" s="1">
-        <v>2.6234955258370563</v>
+        <v>0.47638978818177768</v>
       </c>
       <c r="C87" s="1">
-        <v>1.2044746374824309</v>
+        <v>0.28538765694391988</v>
       </c>
       <c r="D87">
         <v>0</v>
@@ -8504,10 +8504,10 @@
         <v>86</v>
       </c>
       <c r="B88" s="1">
-        <v>2.2358422236652196</v>
+        <v>0.46577032244839195</v>
       </c>
       <c r="C88" s="1">
-        <v>0.99183747905165554</v>
+        <v>0.24789390493110494</v>
       </c>
       <c r="D88">
         <v>0</v>
@@ -8596,10 +8596,10 @@
         <v>87</v>
       </c>
       <c r="B89" s="1">
-        <v>2.8231779595283388</v>
+        <v>0.2</v>
       </c>
       <c r="C89" s="1">
-        <v>0.93601263085883968</v>
+        <v>0.10083156184221553</v>
       </c>
       <c r="D89">
         <v>0</v>
@@ -8688,10 +8688,10 @@
         <v>88</v>
       </c>
       <c r="B90" s="1">
-        <v>2.5742782677124603</v>
+        <v>0.32966638914608004</v>
       </c>
       <c r="C90" s="1">
-        <v>1.3110250855329342</v>
+        <v>0.19422808263458927</v>
       </c>
       <c r="D90">
         <v>0</v>
@@ -8780,10 +8780,10 @@
         <v>89</v>
       </c>
       <c r="B91" s="1">
-        <v>2.0124537340291484</v>
+        <v>1.8775852385836929</v>
       </c>
       <c r="C91" s="1">
-        <v>0.61537503253908832</v>
+        <v>1.067617172343392</v>
       </c>
       <c r="D91">
         <v>0</v>
@@ -8872,10 +8872,10 @@
         <v>90</v>
       </c>
       <c r="B92" s="1">
-        <v>2.0847069600302186</v>
+        <v>1.1313181245242343</v>
       </c>
       <c r="C92" s="1">
-        <v>1.1550224698478724</v>
+        <v>0.66790099735805586</v>
       </c>
       <c r="D92">
         <v>0</v>
@@ -8964,10 +8964,10 @@
         <v>91</v>
       </c>
       <c r="B93" s="1">
-        <v>2.5003013850434876</v>
+        <v>0.80207510383655878</v>
       </c>
       <c r="C93" s="1">
-        <v>1.3765133032461303</v>
+        <v>0.44464142894152286</v>
       </c>
       <c r="D93">
         <v>0</v>
@@ -9056,10 +9056,10 @@
         <v>92</v>
       </c>
       <c r="B94" s="1">
-        <v>2.8518925740511212</v>
+        <v>1.3412957960218739</v>
       </c>
       <c r="C94" s="1">
-        <v>1.108154018561488</v>
+        <v>0.79085362705313922</v>
       </c>
       <c r="D94">
         <v>0</v>
@@ -9148,10 +9148,10 @@
         <v>93</v>
       </c>
       <c r="B95" s="1">
-        <v>2.7779194305369779</v>
+        <v>0.2</v>
       </c>
       <c r="C95" s="1">
-        <v>0.93061773953464699</v>
+        <v>0.11556239993029038</v>
       </c>
       <c r="D95">
         <v>0</v>
@@ -9240,10 +9240,10 @@
         <v>94</v>
       </c>
       <c r="B96" s="1">
-        <v>2.6158064961825023</v>
+        <v>1.2532036793100543</v>
       </c>
       <c r="C96" s="1">
-        <v>1.2996777979956495</v>
+        <v>0.72342431966717691</v>
       </c>
       <c r="D96">
         <v>0</v>
@@ -9332,10 +9332,10 @@
         <v>95</v>
       </c>
       <c r="B97" s="1">
-        <v>2.9214281313408241</v>
+        <v>0.3650905712973716</v>
       </c>
       <c r="C97" s="1">
-        <v>1.1757652409514741</v>
+        <v>0.21365441246520503</v>
       </c>
       <c r="D97">
         <v>0</v>
@@ -9424,10 +9424,10 @@
         <v>96</v>
       </c>
       <c r="B98" s="1">
-        <v>2.6623284673108212</v>
+        <v>0.2</v>
       </c>
       <c r="C98" s="1">
-        <v>1.4592504869256462</v>
+        <v>0.10700124588787929</v>
       </c>
       <c r="D98">
         <v>0</v>
@@ -9516,10 +9516,10 @@
         <v>97</v>
       </c>
       <c r="B99" s="1">
-        <v>2.8412532646012174</v>
+        <v>1.4943588324259895</v>
       </c>
       <c r="C99" s="1">
-        <v>1.5617256923740133</v>
+        <v>0.83383489150621082</v>
       </c>
       <c r="D99">
         <v>0</v>
@@ -9608,10 +9608,10 @@
         <v>98</v>
       </c>
       <c r="B100" s="1">
-        <v>2.3123625551325109</v>
+        <v>1.3128117241747941</v>
       </c>
       <c r="C100" s="1">
-        <v>1.2545936090482683</v>
+        <v>0.70827864946808239</v>
       </c>
       <c r="D100">
         <v>0</v>
@@ -9700,10 +9700,10 @@
         <v>99</v>
       </c>
       <c r="B101" s="1">
-        <v>2.4598085836738837</v>
+        <v>0.2</v>
       </c>
       <c r="C101" s="1">
-        <v>0.8395347136766973</v>
+        <v>0.13187703902837022</v>
       </c>
       <c r="D101">
         <v>0</v>
@@ -9792,10 +9792,10 @@
         <v>100</v>
       </c>
       <c r="B102" s="1">
-        <v>2.8633182204758985</v>
+        <v>1.0030286316332919</v>
       </c>
       <c r="C102" s="1">
-        <v>1.1688647051295098</v>
+        <v>0.63452843465619846</v>
       </c>
       <c r="D102">
         <v>0</v>

--- a/timeseries_test1.xlsx
+++ b/timeseries_test1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Tim Rodgers\Documents\GitHub\BioretentionBlues\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42C249D6-4D10-4EAB-9AAF-BC5E262A0B0D}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C80EAC43-1318-4A25-A78B-5D80A3A0BC05}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5580" xr2:uid="{3FBB2BFD-78C0-48D5-BF04-846B02A3EE22}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17250" windowHeight="5580" xr2:uid="{3FBB2BFD-78C0-48D5-BF04-846B02A3EE22}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -480,22 +480,22 @@
   <dimension ref="A1:AD102"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:C102"/>
+      <selection activeCell="O1" sqref="O1:O102"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="15" max="16" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="9" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="10.77734375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="21" max="22" width="12" bestFit="1" customWidth="1"/>
     <col min="23" max="25" width="13" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="10.77734375" bestFit="1" customWidth="1"/>
-    <col min="28" max="30" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="28" max="30" width="11.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -587,7 +587,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -631,7 +631,7 @@
         <v>7.2751915719893541</v>
       </c>
       <c r="O2" s="2">
-        <v>1E-8</v>
+        <v>1.3392214176925887E-8</v>
       </c>
       <c r="P2" s="2">
         <v>1E-8</v>
@@ -679,7 +679,7 @@
         <v>1E-8</v>
       </c>
     </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -723,7 +723,7 @@
         <v>6.6531154048707215</v>
       </c>
       <c r="O3" s="2">
-        <v>1E-8</v>
+        <v>2.04944710325078E-8</v>
       </c>
       <c r="P3" s="2">
         <v>1E-8</v>
@@ -771,7 +771,7 @@
         <v>1E-8</v>
       </c>
     </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -815,7 +815,7 @@
         <v>6.7589183797954009</v>
       </c>
       <c r="O4" s="2">
-        <v>1E-8</v>
+        <v>7.6377296606791068E-8</v>
       </c>
       <c r="P4" s="2">
         <v>1E-8</v>
@@ -863,7 +863,7 @@
         <v>1E-8</v>
       </c>
     </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
@@ -907,7 +907,7 @@
         <v>7.0720648126226067</v>
       </c>
       <c r="O5" s="2">
-        <v>1E-8</v>
+        <v>4.9092686864946292E-8</v>
       </c>
       <c r="P5" s="2">
         <v>1E-8</v>
@@ -955,7 +955,7 @@
         <v>1E-8</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
@@ -999,7 +999,7 @@
         <v>6.5130547048440626</v>
       </c>
       <c r="O6" s="2">
-        <v>1E-8</v>
+        <v>5.1154476788718543E-8</v>
       </c>
       <c r="P6" s="2">
         <v>1E-8</v>
@@ -1047,7 +1047,7 @@
         <v>1E-8</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
@@ -1091,7 +1091,7 @@
         <v>6.5960004051387822</v>
       </c>
       <c r="O7" s="2">
-        <v>1E-8</v>
+        <v>9.5708589064626412E-9</v>
       </c>
       <c r="P7" s="2">
         <v>1E-8</v>
@@ -1139,7 +1139,7 @@
         <v>1E-8</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6</v>
       </c>
@@ -1183,7 +1183,7 @@
         <v>7.0089575271386844</v>
       </c>
       <c r="O8" s="2">
-        <v>1E-8</v>
+        <v>8.1091536668631338E-8</v>
       </c>
       <c r="P8" s="2">
         <v>1E-8</v>
@@ -1231,7 +1231,7 @@
         <v>1E-8</v>
       </c>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>7</v>
       </c>
@@ -1275,7 +1275,7 @@
         <v>7.4664027956865571</v>
       </c>
       <c r="O9" s="2">
-        <v>1E-8</v>
+        <v>2.1167679599663816E-8</v>
       </c>
       <c r="P9" s="2">
         <v>1E-8</v>
@@ -1323,7 +1323,7 @@
         <v>1E-8</v>
       </c>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>8</v>
       </c>
@@ -1367,7 +1367,7 @@
         <v>7.0293873113663832</v>
       </c>
       <c r="O10" s="2">
-        <v>1E-8</v>
+        <v>4.5575052572647244E-8</v>
       </c>
       <c r="P10" s="2">
         <v>1E-8</v>
@@ -1415,7 +1415,7 @@
         <v>1E-8</v>
       </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>9</v>
       </c>
@@ -1459,7 +1459,7 @@
         <v>6.6150882352112674</v>
       </c>
       <c r="O11" s="2">
-        <v>1E-8</v>
+        <v>1.6826736980194101E-8</v>
       </c>
       <c r="P11" s="2">
         <v>1E-8</v>
@@ -1507,7 +1507,7 @@
         <v>1E-8</v>
       </c>
     </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>10</v>
       </c>
@@ -1551,7 +1551,7 @@
         <v>6.5406911285811402</v>
       </c>
       <c r="O12" s="2">
-        <v>1E-8</v>
+        <v>4.203217696174595E-8</v>
       </c>
       <c r="P12" s="2">
         <v>1E-8</v>
@@ -1599,7 +1599,7 @@
         <v>1E-8</v>
       </c>
     </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>11</v>
       </c>
@@ -1643,7 +1643,7 @@
         <v>6.7143310410057282</v>
       </c>
       <c r="O13" s="2">
-        <v>1E-8</v>
+        <v>4.9963521959943828E-8</v>
       </c>
       <c r="P13" s="2">
         <v>1E-8</v>
@@ -1691,7 +1691,7 @@
         <v>1E-8</v>
       </c>
     </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>12</v>
       </c>
@@ -1735,7 +1735,7 @@
         <v>7.251880706235398</v>
       </c>
       <c r="O14" s="2">
-        <v>1E-8</v>
+        <v>9.8542499661287906E-8</v>
       </c>
       <c r="P14" s="2">
         <v>1E-8</v>
@@ -1783,7 +1783,7 @@
         <v>1E-8</v>
       </c>
     </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>13</v>
       </c>
@@ -1827,7 +1827,7 @@
         <v>6.6730681406771684</v>
       </c>
       <c r="O15" s="2">
-        <v>1E-8</v>
+        <v>4.1270302690052121E-8</v>
       </c>
       <c r="P15" s="2">
         <v>1E-8</v>
@@ -1875,7 +1875,7 @@
         <v>1E-8</v>
       </c>
     </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>14</v>
       </c>
@@ -1919,7 +1919,7 @@
         <v>7.3719240816119447</v>
       </c>
       <c r="O16" s="2">
-        <v>1E-8</v>
+        <v>5.7080268521117207E-8</v>
       </c>
       <c r="P16" s="2">
         <v>1E-8</v>
@@ -1967,7 +1967,7 @@
         <v>1E-8</v>
       </c>
     </row>
-    <row r="17" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>15</v>
       </c>
@@ -2011,7 +2011,7 @@
         <v>7.0134558988439757</v>
       </c>
       <c r="O17" s="2">
-        <v>1E-8</v>
+        <v>4.5585619835275048E-8</v>
       </c>
       <c r="P17" s="2">
         <v>1E-8</v>
@@ -2059,7 +2059,7 @@
         <v>1E-8</v>
       </c>
     </row>
-    <row r="18" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>16</v>
       </c>
@@ -2103,7 +2103,7 @@
         <v>6.5408004078868922</v>
       </c>
       <c r="O18" s="2">
-        <v>1E-8</v>
+        <v>4.7723981906888082E-8</v>
       </c>
       <c r="P18" s="2">
         <v>1E-8</v>
@@ -2151,7 +2151,7 @@
         <v>1E-8</v>
       </c>
     </row>
-    <row r="19" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>17</v>
       </c>
@@ -2195,7 +2195,7 @@
         <v>7.4393259156635088</v>
       </c>
       <c r="O19" s="2">
-        <v>1E-8</v>
+        <v>6.9936241787241473E-8</v>
       </c>
       <c r="P19" s="2">
         <v>1E-8</v>
@@ -2243,7 +2243,7 @@
         <v>1E-8</v>
       </c>
     </row>
-    <row r="20" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>18</v>
       </c>
@@ -2287,7 +2287,7 @@
         <v>7.4751197263560396</v>
       </c>
       <c r="O20" s="2">
-        <v>1E-8</v>
+        <v>5.4116129267955959E-8</v>
       </c>
       <c r="P20" s="2">
         <v>1E-8</v>
@@ -2335,7 +2335,7 @@
         <v>1E-8</v>
       </c>
     </row>
-    <row r="21" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>19</v>
       </c>
@@ -2379,7 +2379,7 @@
         <v>7.0526344127813596</v>
       </c>
       <c r="O21" s="2">
-        <v>1E-8</v>
+        <v>6.5249949754988357E-8</v>
       </c>
       <c r="P21" s="2">
         <v>1E-8</v>
@@ -2427,7 +2427,7 @@
         <v>1E-8</v>
       </c>
     </row>
-    <row r="22" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>20</v>
       </c>
@@ -2471,7 +2471,7 @@
         <v>7.4417115754925396</v>
       </c>
       <c r="O22" s="2">
-        <v>1E-8</v>
+        <v>6.3858550313497282E-8</v>
       </c>
       <c r="P22" s="2">
         <v>1E-8</v>
@@ -2519,7 +2519,7 @@
         <v>1E-8</v>
       </c>
     </row>
-    <row r="23" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>21</v>
       </c>
@@ -2563,7 +2563,7 @@
         <v>7.2472503289318864</v>
       </c>
       <c r="O23" s="2">
-        <v>1E-8</v>
+        <v>8.6223388350612118E-8</v>
       </c>
       <c r="P23" s="2">
         <v>1E-8</v>
@@ -2611,7 +2611,7 @@
         <v>1E-8</v>
       </c>
     </row>
-    <row r="24" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>22</v>
       </c>
@@ -2655,7 +2655,7 @@
         <v>7.2055968538330033</v>
       </c>
       <c r="O24" s="2">
-        <v>1E-8</v>
+        <v>1.621461475230196E-8</v>
       </c>
       <c r="P24" s="2">
         <v>1E-8</v>
@@ -2703,7 +2703,7 @@
         <v>1E-8</v>
       </c>
     </row>
-    <row r="25" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>23</v>
       </c>
@@ -2747,7 +2747,7 @@
         <v>6.6754077831808916</v>
       </c>
       <c r="O25" s="2">
-        <v>1E-8</v>
+        <v>6.9108847309288828E-8</v>
       </c>
       <c r="P25" s="2">
         <v>1E-8</v>
@@ -2795,7 +2795,7 @@
         <v>1E-8</v>
       </c>
     </row>
-    <row r="26" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>24</v>
       </c>
@@ -2839,7 +2839,7 @@
         <v>6.7055944151163009</v>
       </c>
       <c r="O26" s="2">
-        <v>1E-8</v>
+        <v>3.7620806562403825E-8</v>
       </c>
       <c r="P26" s="2">
         <v>1E-8</v>
@@ -2887,7 +2887,7 @@
         <v>1E-8</v>
       </c>
     </row>
-    <row r="27" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>25</v>
       </c>
@@ -2931,7 +2931,7 @@
         <v>7.1876815741882005</v>
       </c>
       <c r="O27" s="2">
-        <v>1E-8</v>
+        <v>1.7251142050742844E-9</v>
       </c>
       <c r="P27" s="2">
         <v>1E-8</v>
@@ -2979,7 +2979,7 @@
         <v>1E-8</v>
       </c>
     </row>
-    <row r="28" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>26</v>
       </c>
@@ -3023,7 +3023,7 @@
         <v>7.4488028732109832</v>
       </c>
       <c r="O28" s="2">
-        <v>1E-8</v>
+        <v>4.1310323019384281E-8</v>
       </c>
       <c r="P28" s="2">
         <v>1E-8</v>
@@ -3071,7 +3071,7 @@
         <v>1E-8</v>
       </c>
     </row>
-    <row r="29" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>27</v>
       </c>
@@ -3115,7 +3115,7 @@
         <v>6.9443639487250586</v>
       </c>
       <c r="O29" s="2">
-        <v>1E-8</v>
+        <v>3.6330530336704059E-8</v>
       </c>
       <c r="P29" s="2">
         <v>1E-8</v>
@@ -3163,7 +3163,7 @@
         <v>1E-8</v>
       </c>
     </row>
-    <row r="30" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>28</v>
       </c>
@@ -3207,7 +3207,7 @@
         <v>6.9575882088310816</v>
       </c>
       <c r="O30" s="2">
-        <v>1E-8</v>
+        <v>1.6192628145954059E-8</v>
       </c>
       <c r="P30" s="2">
         <v>1E-8</v>
@@ -3255,7 +3255,7 @@
         <v>1E-8</v>
       </c>
     </row>
-    <row r="31" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>29</v>
       </c>
@@ -3299,7 +3299,7 @@
         <v>6.9792740312901156</v>
       </c>
       <c r="O31" s="2">
-        <v>1E-8</v>
+        <v>3.4742206860547074E-8</v>
       </c>
       <c r="P31" s="2">
         <v>1E-8</v>
@@ -3347,7 +3347,7 @@
         <v>1E-8</v>
       </c>
     </row>
-    <row r="32" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>30</v>
       </c>
@@ -3391,7 +3391,7 @@
         <v>6.5280610781143222</v>
       </c>
       <c r="O32" s="2">
-        <v>1E-8</v>
+        <v>3.1024434672139523E-8</v>
       </c>
       <c r="P32" s="2">
         <v>1E-8</v>
@@ -3439,7 +3439,7 @@
         <v>1E-8</v>
       </c>
     </row>
-    <row r="33" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>31</v>
       </c>
@@ -3483,7 +3483,7 @@
         <v>7.1024820009287604</v>
       </c>
       <c r="O33" s="2">
-        <v>1E-8</v>
+        <v>8.9783781684310286E-8</v>
       </c>
       <c r="P33" s="2">
         <v>1E-8</v>
@@ -3531,7 +3531,7 @@
         <v>1E-8</v>
       </c>
     </row>
-    <row r="34" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>32</v>
       </c>
@@ -3575,7 +3575,7 @@
         <v>7.2055913607964417</v>
       </c>
       <c r="O34" s="2">
-        <v>1E-8</v>
+        <v>5.9335891715151728E-8</v>
       </c>
       <c r="P34" s="2">
         <v>1E-8</v>
@@ -3623,7 +3623,7 @@
         <v>1E-8</v>
       </c>
     </row>
-    <row r="35" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>33</v>
       </c>
@@ -3667,7 +3667,7 @@
         <v>7.4761031742573243</v>
       </c>
       <c r="O35" s="2">
-        <v>1E-8</v>
+        <v>2.3672848506829772E-8</v>
       </c>
       <c r="P35" s="2">
         <v>1E-8</v>
@@ -3715,7 +3715,7 @@
         <v>1E-8</v>
       </c>
     </row>
-    <row r="36" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>34</v>
       </c>
@@ -3759,7 +3759,7 @@
         <v>7.3511583913561811</v>
       </c>
       <c r="O36" s="2">
-        <v>1E-8</v>
+        <v>4.5348718785603339E-8</v>
       </c>
       <c r="P36" s="2">
         <v>1E-8</v>
@@ -3807,7 +3807,7 @@
         <v>1E-8</v>
       </c>
     </row>
-    <row r="37" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>35</v>
       </c>
@@ -3851,7 +3851,7 @@
         <v>7.1115305946653011</v>
       </c>
       <c r="O37" s="2">
-        <v>1E-8</v>
+        <v>3.9552323252782289E-8</v>
       </c>
       <c r="P37" s="2">
         <v>1E-8</v>
@@ -3899,7 +3899,7 @@
         <v>1E-8</v>
       </c>
     </row>
-    <row r="38" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>36</v>
       </c>
@@ -3943,7 +3943,7 @@
         <v>6.6981012312178398</v>
       </c>
       <c r="O38" s="2">
-        <v>1E-8</v>
+        <v>2.5501115145552565E-8</v>
       </c>
       <c r="P38" s="2">
         <v>1E-8</v>
@@ -3991,7 +3991,7 @@
         <v>1E-8</v>
       </c>
     </row>
-    <row r="39" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>37</v>
       </c>
@@ -4035,7 +4035,7 @@
         <v>7.0951943795404251</v>
       </c>
       <c r="O39" s="2">
-        <v>1E-8</v>
+        <v>8.2770422791312408E-8</v>
       </c>
       <c r="P39" s="2">
         <v>1E-8</v>
@@ -4083,7 +4083,7 @@
         <v>1E-8</v>
       </c>
     </row>
-    <row r="40" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>38</v>
       </c>
@@ -4127,7 +4127,7 @@
         <v>7.2769990222970984</v>
       </c>
       <c r="O40" s="2">
-        <v>1E-8</v>
+        <v>6.6640520226754598E-8</v>
       </c>
       <c r="P40" s="2">
         <v>1E-8</v>
@@ -4175,7 +4175,7 @@
         <v>1E-8</v>
       </c>
     </row>
-    <row r="41" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>39</v>
       </c>
@@ -4219,7 +4219,7 @@
         <v>6.9238317011395818</v>
       </c>
       <c r="O41" s="2">
-        <v>1E-8</v>
+        <v>8.6722337127749951E-8</v>
       </c>
       <c r="P41" s="2">
         <v>1E-8</v>
@@ -4267,7 +4267,7 @@
         <v>1E-8</v>
       </c>
     </row>
-    <row r="42" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>40</v>
       </c>
@@ -4311,7 +4311,7 @@
         <v>6.6610464124690356</v>
       </c>
       <c r="O42" s="2">
-        <v>1E-8</v>
+        <v>3.1526948207643422E-8</v>
       </c>
       <c r="P42" s="2">
         <v>1E-8</v>
@@ -4359,7 +4359,7 @@
         <v>1E-8</v>
       </c>
     </row>
-    <row r="43" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>41</v>
       </c>
@@ -4403,7 +4403,7 @@
         <v>6.8842309899103409</v>
       </c>
       <c r="O43" s="2">
-        <v>1E-8</v>
+        <v>2.1956248659153014E-9</v>
       </c>
       <c r="P43" s="2">
         <v>1E-8</v>
@@ -4451,7 +4451,7 @@
         <v>1E-8</v>
       </c>
     </row>
-    <row r="44" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>42</v>
       </c>
@@ -4495,7 +4495,7 @@
         <v>7.197955081329277</v>
       </c>
       <c r="O44" s="2">
-        <v>1E-8</v>
+        <v>2.7167974342823189E-8</v>
       </c>
       <c r="P44" s="2">
         <v>1E-8</v>
@@ -4543,7 +4543,7 @@
         <v>1E-8</v>
       </c>
     </row>
-    <row r="45" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>43</v>
       </c>
@@ -4587,7 +4587,7 @@
         <v>7.4516066097740428</v>
       </c>
       <c r="O45" s="2">
-        <v>1E-8</v>
+        <v>2.4764479333514356E-8</v>
       </c>
       <c r="P45" s="2">
         <v>1E-8</v>
@@ -4635,7 +4635,7 @@
         <v>1E-8</v>
       </c>
     </row>
-    <row r="46" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>44</v>
       </c>
@@ -4679,7 +4679,7 @@
         <v>7.1340561227405983</v>
       </c>
       <c r="O46" s="2">
-        <v>1E-8</v>
+        <v>4.7309146515600036E-8</v>
       </c>
       <c r="P46" s="2">
         <v>1E-8</v>
@@ -4727,7 +4727,7 @@
         <v>1E-8</v>
       </c>
     </row>
-    <row r="47" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>45</v>
       </c>
@@ -4771,7 +4771,7 @@
         <v>6.7586731512125722</v>
       </c>
       <c r="O47" s="2">
-        <v>1E-8</v>
+        <v>3.6438967512085374E-8</v>
       </c>
       <c r="P47" s="2">
         <v>1E-8</v>
@@ -4819,7 +4819,7 @@
         <v>1E-8</v>
       </c>
     </row>
-    <row r="48" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>46</v>
       </c>
@@ -4863,7 +4863,7 @@
         <v>6.5444046725549487</v>
       </c>
       <c r="O48" s="2">
-        <v>1E-8</v>
+        <v>3.281680158304046E-8</v>
       </c>
       <c r="P48" s="2">
         <v>1E-8</v>
@@ -4911,7 +4911,7 @@
         <v>1E-8</v>
       </c>
     </row>
-    <row r="49" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>47</v>
       </c>
@@ -4955,7 +4955,7 @@
         <v>7.3786426310031894</v>
       </c>
       <c r="O49" s="2">
-        <v>1E-8</v>
+        <v>6.8815450505527276E-9</v>
       </c>
       <c r="P49" s="2">
         <v>1E-8</v>
@@ -5003,7 +5003,7 @@
         <v>1E-8</v>
       </c>
     </row>
-    <row r="50" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>48</v>
       </c>
@@ -5047,7 +5047,7 @@
         <v>6.6422519818988679</v>
       </c>
       <c r="O50" s="2">
-        <v>1E-8</v>
+        <v>1.8527247141548063E-8</v>
       </c>
       <c r="P50" s="2">
         <v>1E-8</v>
@@ -5095,7 +5095,7 @@
         <v>1E-8</v>
       </c>
     </row>
-    <row r="51" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>49</v>
       </c>
@@ -5139,7 +5139,7 @@
         <v>6.8937532789696974</v>
       </c>
       <c r="O51" s="2">
-        <v>1E-8</v>
+        <v>6.1342182491313936E-8</v>
       </c>
       <c r="P51" s="2">
         <v>1E-8</v>
@@ -5187,7 +5187,7 @@
         <v>1E-8</v>
       </c>
     </row>
-    <row r="52" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>50</v>
       </c>
@@ -5231,7 +5231,7 @@
         <v>6.8789907168212698</v>
       </c>
       <c r="O52" s="2">
-        <v>1E-8</v>
+        <v>1.0061453066798561E-7</v>
       </c>
       <c r="P52" s="2">
         <v>1E-8</v>
@@ -5279,7 +5279,7 @@
         <v>1E-8</v>
       </c>
     </row>
-    <row r="53" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>51</v>
       </c>
@@ -5323,7 +5323,7 @@
         <v>7.0248330490324102</v>
       </c>
       <c r="O53" s="2">
-        <v>1E-8</v>
+        <v>3.4254484450972079E-8</v>
       </c>
       <c r="P53" s="2">
         <v>1E-8</v>
@@ -5371,7 +5371,7 @@
         <v>1E-8</v>
       </c>
     </row>
-    <row r="54" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>52</v>
       </c>
@@ -5415,7 +5415,7 @@
         <v>7.4417370360485826</v>
       </c>
       <c r="O54" s="2">
-        <v>1E-8</v>
+        <v>7.0756569221515078E-8</v>
       </c>
       <c r="P54" s="2">
         <v>1E-8</v>
@@ -5463,7 +5463,7 @@
         <v>1E-8</v>
       </c>
     </row>
-    <row r="55" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>53</v>
       </c>
@@ -5507,7 +5507,7 @@
         <v>6.557510488360184</v>
       </c>
       <c r="O55" s="2">
-        <v>1E-8</v>
+        <v>9.821690063348708E-8</v>
       </c>
       <c r="P55" s="2">
         <v>1E-8</v>
@@ -5555,7 +5555,7 @@
         <v>1E-8</v>
       </c>
     </row>
-    <row r="56" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>54</v>
       </c>
@@ -5599,7 +5599,7 @@
         <v>7.2498908818829575</v>
       </c>
       <c r="O56" s="2">
-        <v>1E-8</v>
+        <v>1.7719567592316743E-8</v>
       </c>
       <c r="P56" s="2">
         <v>1E-8</v>
@@ -5647,7 +5647,7 @@
         <v>1E-8</v>
       </c>
     </row>
-    <row r="57" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>55</v>
       </c>
@@ -5691,7 +5691,7 @@
         <v>7.1480417709554169</v>
       </c>
       <c r="O57" s="2">
-        <v>1E-8</v>
+        <v>3.7729007212669842E-8</v>
       </c>
       <c r="P57" s="2">
         <v>1E-8</v>
@@ -5739,7 +5739,7 @@
         <v>1E-8</v>
       </c>
     </row>
-    <row r="58" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>56</v>
       </c>
@@ -5783,7 +5783,7 @@
         <v>7.3226091255525523</v>
       </c>
       <c r="O58" s="2">
-        <v>1E-8</v>
+        <v>2.5772332927271982E-8</v>
       </c>
       <c r="P58" s="2">
         <v>1E-8</v>
@@ -5831,7 +5831,7 @@
         <v>1E-8</v>
       </c>
     </row>
-    <row r="59" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>57</v>
       </c>
@@ -5875,7 +5875,7 @@
         <v>7.396370915394737</v>
       </c>
       <c r="O59" s="2">
-        <v>1E-8</v>
+        <v>9.2546701417036105E-8</v>
       </c>
       <c r="P59" s="2">
         <v>1E-8</v>
@@ -5923,7 +5923,7 @@
         <v>1E-8</v>
       </c>
     </row>
-    <row r="60" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>58</v>
       </c>
@@ -5967,7 +5967,7 @@
         <v>6.9749942784964656</v>
       </c>
       <c r="O60" s="2">
-        <v>1E-8</v>
+        <v>3.7601000888233371E-8</v>
       </c>
       <c r="P60" s="2">
         <v>1E-8</v>
@@ -6015,7 +6015,7 @@
         <v>1E-8</v>
       </c>
     </row>
-    <row r="61" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>59</v>
       </c>
@@ -6059,7 +6059,7 @@
         <v>6.5048741067487601</v>
       </c>
       <c r="O61" s="2">
-        <v>1E-8</v>
+        <v>2.8006608336991288E-8</v>
       </c>
       <c r="P61" s="2">
         <v>1E-8</v>
@@ -6107,7 +6107,7 @@
         <v>1E-8</v>
       </c>
     </row>
-    <row r="62" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>60</v>
       </c>
@@ -6151,7 +6151,7 @@
         <v>6.5477052394060076</v>
       </c>
       <c r="O62" s="2">
-        <v>1E-8</v>
+        <v>8.0119316801082706E-8</v>
       </c>
       <c r="P62" s="2">
         <v>1E-8</v>
@@ -6199,7 +6199,7 @@
         <v>1E-8</v>
       </c>
     </row>
-    <row r="63" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>61</v>
       </c>
@@ -6243,7 +6243,7 @@
         <v>7.0968037962439912</v>
       </c>
       <c r="O63" s="2">
-        <v>1E-8</v>
+        <v>1.2734621585534611E-8</v>
       </c>
       <c r="P63" s="2">
         <v>1E-8</v>
@@ -6291,7 +6291,7 @@
         <v>1E-8</v>
       </c>
     </row>
-    <row r="64" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>62</v>
       </c>
@@ -6335,7 +6335,7 @@
         <v>7.2223342795841923</v>
       </c>
       <c r="O64" s="2">
-        <v>1E-8</v>
+        <v>3.4514857135328514E-8</v>
       </c>
       <c r="P64" s="2">
         <v>1E-8</v>
@@ -6383,7 +6383,7 @@
         <v>1E-8</v>
       </c>
     </row>
-    <row r="65" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>63</v>
       </c>
@@ -6427,7 +6427,7 @@
         <v>7.499923434184022</v>
       </c>
       <c r="O65" s="2">
-        <v>1E-8</v>
+        <v>7.8863839922162092E-8</v>
       </c>
       <c r="P65" s="2">
         <v>1E-8</v>
@@ -6475,7 +6475,7 @@
         <v>1E-8</v>
       </c>
     </row>
-    <row r="66" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>64</v>
       </c>
@@ -6519,7 +6519,7 @@
         <v>6.8008657526883649</v>
       </c>
       <c r="O66" s="2">
-        <v>1E-8</v>
+        <v>8.9043702835346292E-8</v>
       </c>
       <c r="P66" s="2">
         <v>1E-8</v>
@@ -6567,7 +6567,7 @@
         <v>1E-8</v>
       </c>
     </row>
-    <row r="67" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>65</v>
       </c>
@@ -6611,7 +6611,7 @@
         <v>6.6474179428678513</v>
       </c>
       <c r="O67" s="2">
-        <v>1E-8</v>
+        <v>5.7244559831715729E-8</v>
       </c>
       <c r="P67" s="2">
         <v>1E-8</v>
@@ -6659,7 +6659,7 @@
         <v>1E-8</v>
       </c>
     </row>
-    <row r="68" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>66</v>
       </c>
@@ -6703,7 +6703,7 @@
         <v>7.1105844293411344</v>
       </c>
       <c r="O68" s="2">
-        <v>1E-8</v>
+        <v>3.2262434885064674E-8</v>
       </c>
       <c r="P68" s="2">
         <v>1E-8</v>
@@ -6751,7 +6751,7 @@
         <v>1E-8</v>
       </c>
     </row>
-    <row r="69" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>67</v>
       </c>
@@ -6795,7 +6795,7 @@
         <v>7.3539579611776578</v>
       </c>
       <c r="O69" s="2">
-        <v>1E-8</v>
+        <v>5.1294643728231222E-8</v>
       </c>
       <c r="P69" s="2">
         <v>1E-8</v>
@@ -6843,7 +6843,7 @@
         <v>1E-8</v>
       </c>
     </row>
-    <row r="70" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>68</v>
       </c>
@@ -6887,7 +6887,7 @@
         <v>7.1219648832210352</v>
       </c>
       <c r="O70" s="2">
-        <v>1E-8</v>
+        <v>1.9776431581978749E-8</v>
       </c>
       <c r="P70" s="2">
         <v>1E-8</v>
@@ -6935,7 +6935,7 @@
         <v>1E-8</v>
       </c>
     </row>
-    <row r="71" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>69</v>
       </c>
@@ -6979,7 +6979,7 @@
         <v>7.0011958378360557</v>
       </c>
       <c r="O71" s="2">
-        <v>1E-8</v>
+        <v>7.9758180368844183E-9</v>
       </c>
       <c r="P71" s="2">
         <v>1E-8</v>
@@ -7027,7 +7027,7 @@
         <v>1E-8</v>
       </c>
     </row>
-    <row r="72" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>70</v>
       </c>
@@ -7071,7 +7071,7 @@
         <v>6.7884503403914751</v>
       </c>
       <c r="O72" s="2">
-        <v>1E-8</v>
+        <v>7.895431351512505E-8</v>
       </c>
       <c r="P72" s="2">
         <v>1E-8</v>
@@ -7119,7 +7119,7 @@
         <v>1E-8</v>
       </c>
     </row>
-    <row r="73" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>71</v>
       </c>
@@ -7163,7 +7163,7 @@
         <v>6.8702549115088436</v>
       </c>
       <c r="O73" s="2">
-        <v>1E-8</v>
+        <v>6.4878730474075044E-8</v>
       </c>
       <c r="P73" s="2">
         <v>1E-8</v>
@@ -7211,7 +7211,7 @@
         <v>1E-8</v>
       </c>
     </row>
-    <row r="74" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>72</v>
       </c>
@@ -7255,7 +7255,7 @@
         <v>7.2833025934629685</v>
       </c>
       <c r="O74" s="2">
-        <v>1E-8</v>
+        <v>7.9062891009181043E-8</v>
       </c>
       <c r="P74" s="2">
         <v>1E-8</v>
@@ -7303,7 +7303,7 @@
         <v>1E-8</v>
       </c>
     </row>
-    <row r="75" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>73</v>
       </c>
@@ -7347,7 +7347,7 @@
         <v>6.9913205960503149</v>
       </c>
       <c r="O75" s="2">
-        <v>1E-8</v>
+        <v>1.8897965649682569E-8</v>
       </c>
       <c r="P75" s="2">
         <v>1E-8</v>
@@ -7395,7 +7395,7 @@
         <v>1E-8</v>
       </c>
     </row>
-    <row r="76" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>74</v>
       </c>
@@ -7439,7 +7439,7 @@
         <v>7.0004329875944897</v>
       </c>
       <c r="O76" s="2">
-        <v>1E-8</v>
+        <v>8.3418497362066234E-8</v>
       </c>
       <c r="P76" s="2">
         <v>1E-8</v>
@@ -7487,7 +7487,7 @@
         <v>1E-8</v>
       </c>
     </row>
-    <row r="77" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>75</v>
       </c>
@@ -7531,7 +7531,7 @@
         <v>6.6036989400021611</v>
       </c>
       <c r="O77" s="2">
-        <v>1E-8</v>
+        <v>8.654115653707297E-8</v>
       </c>
       <c r="P77" s="2">
         <v>1E-8</v>
@@ -7579,7 +7579,7 @@
         <v>1E-8</v>
       </c>
     </row>
-    <row r="78" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>76</v>
       </c>
@@ -7623,7 +7623,7 @@
         <v>7.3076403833587289</v>
       </c>
       <c r="O78" s="2">
-        <v>1E-8</v>
+        <v>7.0503490032963449E-8</v>
       </c>
       <c r="P78" s="2">
         <v>1E-8</v>
@@ -7671,7 +7671,7 @@
         <v>1E-8</v>
       </c>
     </row>
-    <row r="79" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>77</v>
       </c>
@@ -7715,7 +7715,7 @@
         <v>6.5177149461189847</v>
       </c>
       <c r="O79" s="2">
-        <v>1E-8</v>
+        <v>5.9431476785952598E-8</v>
       </c>
       <c r="P79" s="2">
         <v>1E-8</v>
@@ -7763,7 +7763,7 @@
         <v>1E-8</v>
       </c>
     </row>
-    <row r="80" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>78</v>
       </c>
@@ -7807,7 +7807,7 @@
         <v>6.637989111598932</v>
       </c>
       <c r="O80" s="2">
-        <v>1E-8</v>
+        <v>9.9953378383732252E-8</v>
       </c>
       <c r="P80" s="2">
         <v>1E-8</v>
@@ -7855,7 +7855,7 @@
         <v>1E-8</v>
       </c>
     </row>
-    <row r="81" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>79</v>
       </c>
@@ -7899,7 +7899,7 @@
         <v>7.2983655148884141</v>
       </c>
       <c r="O81" s="2">
-        <v>1E-8</v>
+        <v>4.4273501982362918E-8</v>
       </c>
       <c r="P81" s="2">
         <v>1E-8</v>
@@ -7947,7 +7947,7 @@
         <v>1E-8</v>
       </c>
     </row>
-    <row r="82" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>80</v>
       </c>
@@ -7991,7 +7991,7 @@
         <v>6.5677864661565648</v>
       </c>
       <c r="O82" s="2">
-        <v>1E-8</v>
+        <v>5.3113875308938846E-9</v>
       </c>
       <c r="P82" s="2">
         <v>1E-8</v>
@@ -8039,7 +8039,7 @@
         <v>1E-8</v>
       </c>
     </row>
-    <row r="83" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>81</v>
       </c>
@@ -8083,7 +8083,7 @@
         <v>6.6085248358038893</v>
       </c>
       <c r="O83" s="2">
-        <v>1E-8</v>
+        <v>9.1630189378526667E-8</v>
       </c>
       <c r="P83" s="2">
         <v>1E-8</v>
@@ -8131,7 +8131,7 @@
         <v>1E-8</v>
       </c>
     </row>
-    <row r="84" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>82</v>
       </c>
@@ -8175,7 +8175,7 @@
         <v>6.969483313074484</v>
       </c>
       <c r="O84" s="2">
-        <v>1E-8</v>
+        <v>9.5294455905432612E-9</v>
       </c>
       <c r="P84" s="2">
         <v>1E-8</v>
@@ -8223,7 +8223,7 @@
         <v>1E-8</v>
       </c>
     </row>
-    <row r="85" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>83</v>
       </c>
@@ -8267,7 +8267,7 @@
         <v>7.2242871730696567</v>
       </c>
       <c r="O85" s="2">
-        <v>1E-8</v>
+        <v>7.0300672231484327E-8</v>
       </c>
       <c r="P85" s="2">
         <v>1E-8</v>
@@ -8315,7 +8315,7 @@
         <v>1E-8</v>
       </c>
     </row>
-    <row r="86" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>84</v>
       </c>
@@ -8359,7 +8359,7 @@
         <v>7.3612631105067106</v>
       </c>
       <c r="O86" s="2">
-        <v>1E-8</v>
+        <v>8.0342976556184729E-8</v>
       </c>
       <c r="P86" s="2">
         <v>1E-8</v>
@@ -8407,7 +8407,7 @@
         <v>1E-8</v>
       </c>
     </row>
-    <row r="87" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>85</v>
       </c>
@@ -8451,7 +8451,7 @@
         <v>6.520244135064603</v>
       </c>
       <c r="O87" s="2">
-        <v>1E-8</v>
+        <v>9.6066568354816984E-8</v>
       </c>
       <c r="P87" s="2">
         <v>1E-8</v>
@@ -8499,7 +8499,7 @@
         <v>1E-8</v>
       </c>
     </row>
-    <row r="88" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>86</v>
       </c>
@@ -8543,7 +8543,7 @@
         <v>6.9026103319500542</v>
       </c>
       <c r="O88" s="2">
-        <v>1E-8</v>
+        <v>2.9448579617763359E-8</v>
       </c>
       <c r="P88" s="2">
         <v>1E-8</v>
@@ -8591,7 +8591,7 @@
         <v>1E-8</v>
       </c>
     </row>
-    <row r="89" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>87</v>
       </c>
@@ -8635,7 +8635,7 @@
         <v>6.7750793527230151</v>
       </c>
       <c r="O89" s="2">
-        <v>1E-8</v>
+        <v>8.5802811784394404E-8</v>
       </c>
       <c r="P89" s="2">
         <v>1E-8</v>
@@ -8683,7 +8683,7 @@
         <v>1E-8</v>
       </c>
     </row>
-    <row r="90" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>88</v>
       </c>
@@ -8727,7 +8727,7 @@
         <v>7.2061047831668619</v>
       </c>
       <c r="O90" s="2">
-        <v>1E-8</v>
+        <v>4.2428261207415891E-8</v>
       </c>
       <c r="P90" s="2">
         <v>1E-8</v>
@@ -8775,7 +8775,7 @@
         <v>1E-8</v>
       </c>
     </row>
-    <row r="91" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>89</v>
       </c>
@@ -8819,7 +8819,7 @@
         <v>7.0029991230314934</v>
       </c>
       <c r="O91" s="2">
-        <v>1E-8</v>
+        <v>4.9643984722798121E-8</v>
       </c>
       <c r="P91" s="2">
         <v>1E-8</v>
@@ -8867,7 +8867,7 @@
         <v>1E-8</v>
       </c>
     </row>
-    <row r="92" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>90</v>
       </c>
@@ -8911,7 +8911,7 @@
         <v>6.8550621896089137</v>
       </c>
       <c r="O92" s="2">
-        <v>1E-8</v>
+        <v>3.4870491393043916E-8</v>
       </c>
       <c r="P92" s="2">
         <v>1E-8</v>
@@ -8959,7 +8959,7 @@
         <v>1E-8</v>
       </c>
     </row>
-    <row r="93" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>91</v>
       </c>
@@ -9003,7 +9003,7 @@
         <v>7.4051646654219851</v>
       </c>
       <c r="O93" s="2">
-        <v>1E-8</v>
+        <v>5.8145252553804008E-8</v>
       </c>
       <c r="P93" s="2">
         <v>1E-8</v>
@@ -9051,7 +9051,7 @@
         <v>1E-8</v>
       </c>
     </row>
-    <row r="94" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>92</v>
       </c>
@@ -9095,7 +9095,7 @@
         <v>6.9785576469340791</v>
       </c>
       <c r="O94" s="2">
-        <v>1E-8</v>
+        <v>8.8301236448401627E-8</v>
       </c>
       <c r="P94" s="2">
         <v>1E-8</v>
@@ -9143,7 +9143,7 @@
         <v>1E-8</v>
       </c>
     </row>
-    <row r="95" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>93</v>
       </c>
@@ -9187,7 +9187,7 @@
         <v>7.0182825021196376</v>
       </c>
       <c r="O95" s="2">
-        <v>1E-8</v>
+        <v>9.6852118073930112E-8</v>
       </c>
       <c r="P95" s="2">
         <v>1E-8</v>
@@ -9235,7 +9235,7 @@
         <v>1E-8</v>
       </c>
     </row>
-    <row r="96" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>94</v>
       </c>
@@ -9279,7 +9279,7 @@
         <v>7.321845015515664</v>
       </c>
       <c r="O96" s="2">
-        <v>1E-8</v>
+        <v>5.7892337753620471E-8</v>
       </c>
       <c r="P96" s="2">
         <v>1E-8</v>
@@ -9327,7 +9327,7 @@
         <v>1E-8</v>
       </c>
     </row>
-    <row r="97" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>95</v>
       </c>
@@ -9371,7 +9371,7 @@
         <v>7.3750919672534545</v>
       </c>
       <c r="O97" s="2">
-        <v>1E-8</v>
+        <v>4.4161955694250681E-8</v>
       </c>
       <c r="P97" s="2">
         <v>1E-8</v>
@@ -9419,7 +9419,7 @@
         <v>1E-8</v>
       </c>
     </row>
-    <row r="98" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>96</v>
       </c>
@@ -9463,7 +9463,7 @@
         <v>6.913461816943129</v>
       </c>
       <c r="O98" s="2">
-        <v>1E-8</v>
+        <v>9.0403570223786126E-8</v>
       </c>
       <c r="P98" s="2">
         <v>1E-8</v>
@@ -9511,7 +9511,7 @@
         <v>1E-8</v>
       </c>
     </row>
-    <row r="99" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>97</v>
       </c>
@@ -9555,7 +9555,7 @@
         <v>6.558791465115033</v>
       </c>
       <c r="O99" s="2">
-        <v>1E-8</v>
+        <v>7.9203721264902278E-9</v>
       </c>
       <c r="P99" s="2">
         <v>1E-8</v>
@@ -9603,7 +9603,7 @@
         <v>1E-8</v>
       </c>
     </row>
-    <row r="100" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>98</v>
       </c>
@@ -9647,7 +9647,7 @@
         <v>6.6238534185003175</v>
       </c>
       <c r="O100" s="2">
-        <v>1E-8</v>
+        <v>2.1910395037142248E-8</v>
       </c>
       <c r="P100" s="2">
         <v>1E-8</v>
@@ -9695,7 +9695,7 @@
         <v>1E-8</v>
       </c>
     </row>
-    <row r="101" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>99</v>
       </c>
@@ -9739,7 +9739,7 @@
         <v>6.895683341348505</v>
       </c>
       <c r="O101" s="2">
-        <v>1E-8</v>
+        <v>9.7893437632564469E-8</v>
       </c>
       <c r="P101" s="2">
         <v>1E-8</v>
@@ -9787,7 +9787,7 @@
         <v>1E-8</v>
       </c>
     </row>
-    <row r="102" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>100</v>
       </c>
@@ -9831,7 +9831,7 @@
         <v>7.0043241713794222</v>
       </c>
       <c r="O102" s="2">
-        <v>1E-8</v>
+        <v>5.9474441515426456E-8</v>
       </c>
       <c r="P102" s="2">
         <v>1E-8</v>
